--- a/MP2results.xlsx
+++ b/MP2results.xlsx
@@ -1,26 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hamzah\Projects\COMP472-MP2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A846827-A869-49CD-B26E-2A0DE754DF59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{460C6122-1E06-4AB4-A8D0-137943A583A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-43515" yWindow="7425" windowWidth="38700" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="2355" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Results" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet4" sheetId="5" r:id="rId1"/>
+    <sheet name="Results" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="924" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1338" uniqueCount="14">
   <si>
     <t>Puzzle Number</t>
   </si>
@@ -140,6 +141,21 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8ACF7DCE-B9A9-45EB-9A30-038647945D38}" name="Table1" displayName="Table1" ref="A1:F201" totalsRowShown="0">
+  <autoFilter ref="A1:F201" xr:uid="{8ACF7DCE-B9A9-45EB-9A30-038647945D38}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{F8415444-4905-4DC9-815C-353D1C8BFF8F}" name="Puzzle Number"/>
+    <tableColumn id="2" xr3:uid="{90F9E646-2044-4571-8612-9EA5A74C5DB5}" name="Algorithm"/>
+    <tableColumn id="3" xr3:uid="{B751647B-0F33-4B02-9397-E7A8F40097D6}" name="Heuristic"/>
+    <tableColumn id="4" xr3:uid="{D47BD03A-E67C-441F-A92F-A9B0B6CDACA9}" name="Length of the Solution"/>
+    <tableColumn id="5" xr3:uid="{CC0E5507-434F-4B4A-B55D-7DE330C805A6}" name="Length of the Search Path"/>
+    <tableColumn id="6" xr3:uid="{8DC5D350-64BF-43ED-8A8B-B5EBFDC536B0}" name=" Execution Time (in seconds)"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -462,11 +478,4057 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F3A2485-21AB-485C-BCC4-C65F8ACEF050}">
+  <dimension ref="A1:F201"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.5703125" customWidth="1"/>
+    <col min="2" max="2" width="12" customWidth="1"/>
+    <col min="3" max="3" width="11" customWidth="1"/>
+    <col min="4" max="4" width="22.7109375" customWidth="1"/>
+    <col min="5" max="5" width="25.5703125" customWidth="1"/>
+    <col min="6" max="6" width="28.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>50</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2">
+        <v>31</v>
+      </c>
+      <c r="E2">
+        <v>642</v>
+      </c>
+      <c r="F2">
+        <v>6.17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>50</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3">
+        <v>34</v>
+      </c>
+      <c r="E3">
+        <v>499</v>
+      </c>
+      <c r="F3">
+        <v>4.04</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>50</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4">
+        <v>31</v>
+      </c>
+      <c r="E4">
+        <v>1423</v>
+      </c>
+      <c r="F4">
+        <v>15.08</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>50</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5">
+        <v>31</v>
+      </c>
+      <c r="E5">
+        <v>1423</v>
+      </c>
+      <c r="F5">
+        <v>15.86</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>49</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6">
+        <v>32</v>
+      </c>
+      <c r="E6">
+        <v>3317</v>
+      </c>
+      <c r="F6">
+        <v>45.55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7">
+        <v>5</v>
+      </c>
+      <c r="E7">
+        <v>225</v>
+      </c>
+      <c r="F7">
+        <v>2.21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8">
+        <v>5</v>
+      </c>
+      <c r="E8">
+        <v>225</v>
+      </c>
+      <c r="F8">
+        <v>2.23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9">
+        <v>5</v>
+      </c>
+      <c r="E9">
+        <v>12</v>
+      </c>
+      <c r="F9">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10">
+        <v>5</v>
+      </c>
+      <c r="E10">
+        <v>50</v>
+      </c>
+      <c r="F10">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>49</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11">
+        <v>35</v>
+      </c>
+      <c r="E11">
+        <v>2073</v>
+      </c>
+      <c r="F11">
+        <v>25.74</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>49</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12">
+        <v>32</v>
+      </c>
+      <c r="E12">
+        <v>3543</v>
+      </c>
+      <c r="F12">
+        <v>50.31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>49</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13">
+        <v>32</v>
+      </c>
+      <c r="E13">
+        <v>3543</v>
+      </c>
+      <c r="F13">
+        <v>49.55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>48</v>
+      </c>
+      <c r="B14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14">
+        <v>33</v>
+      </c>
+      <c r="E14">
+        <v>7372</v>
+      </c>
+      <c r="F14">
+        <v>136.54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>48</v>
+      </c>
+      <c r="B15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15">
+        <v>33</v>
+      </c>
+      <c r="E15">
+        <v>7347</v>
+      </c>
+      <c r="F15">
+        <v>130.13999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>2</v>
+      </c>
+      <c r="B16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16">
+        <v>5</v>
+      </c>
+      <c r="E16">
+        <v>154</v>
+      </c>
+      <c r="F16">
+        <v>1.1499999999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>2</v>
+      </c>
+      <c r="B17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17">
+        <v>5</v>
+      </c>
+      <c r="E17">
+        <v>154</v>
+      </c>
+      <c r="F17">
+        <v>1.1399999999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>2</v>
+      </c>
+      <c r="B18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18">
+        <v>5</v>
+      </c>
+      <c r="E18">
+        <v>66</v>
+      </c>
+      <c r="F18">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>2</v>
+      </c>
+      <c r="B19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19">
+        <v>5</v>
+      </c>
+      <c r="E19">
+        <v>81</v>
+      </c>
+      <c r="F19">
+        <v>0.69</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>48</v>
+      </c>
+      <c r="B20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20">
+        <v>31</v>
+      </c>
+      <c r="E20">
+        <v>9520</v>
+      </c>
+      <c r="F20">
+        <v>186.79</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>48</v>
+      </c>
+      <c r="B21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21">
+        <v>31</v>
+      </c>
+      <c r="E21">
+        <v>9520</v>
+      </c>
+      <c r="F21">
+        <v>187.12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>47</v>
+      </c>
+      <c r="B22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22">
+        <v>34</v>
+      </c>
+      <c r="E22">
+        <v>3412</v>
+      </c>
+      <c r="F22">
+        <v>54.33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>47</v>
+      </c>
+      <c r="B23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23">
+        <v>43</v>
+      </c>
+      <c r="E23">
+        <v>3314</v>
+      </c>
+      <c r="F23">
+        <v>52.6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>47</v>
+      </c>
+      <c r="B24" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24">
+        <v>33</v>
+      </c>
+      <c r="E24">
+        <v>4474</v>
+      </c>
+      <c r="F24">
+        <v>73.069999999999993</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>3</v>
+      </c>
+      <c r="B25" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25">
+        <v>5</v>
+      </c>
+      <c r="E25">
+        <v>168</v>
+      </c>
+      <c r="F25">
+        <v>1.79</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>3</v>
+      </c>
+      <c r="B26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" t="s">
+        <v>11</v>
+      </c>
+      <c r="D26">
+        <v>5</v>
+      </c>
+      <c r="E26">
+        <v>168</v>
+      </c>
+      <c r="F26">
+        <v>1.71</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>3</v>
+      </c>
+      <c r="B27" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" t="s">
+        <v>12</v>
+      </c>
+      <c r="D27">
+        <v>5</v>
+      </c>
+      <c r="E27">
+        <v>13</v>
+      </c>
+      <c r="F27">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>3</v>
+      </c>
+      <c r="B28" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" t="s">
+        <v>13</v>
+      </c>
+      <c r="D28">
+        <v>5</v>
+      </c>
+      <c r="E28">
+        <v>45</v>
+      </c>
+      <c r="F28">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>47</v>
+      </c>
+      <c r="B29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" t="s">
+        <v>10</v>
+      </c>
+      <c r="D29">
+        <v>33</v>
+      </c>
+      <c r="E29">
+        <v>4474</v>
+      </c>
+      <c r="F29">
+        <v>72.099999999999994</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>46</v>
+      </c>
+      <c r="B30" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" t="s">
+        <v>13</v>
+      </c>
+      <c r="D30">
+        <v>35</v>
+      </c>
+      <c r="E30">
+        <v>4920</v>
+      </c>
+      <c r="F30">
+        <v>77.69</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>46</v>
+      </c>
+      <c r="B31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" t="s">
+        <v>12</v>
+      </c>
+      <c r="D31">
+        <v>35</v>
+      </c>
+      <c r="E31">
+        <v>4718</v>
+      </c>
+      <c r="F31">
+        <v>74.260000000000005</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>46</v>
+      </c>
+      <c r="B32" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" t="s">
+        <v>11</v>
+      </c>
+      <c r="D32">
+        <v>35</v>
+      </c>
+      <c r="E32">
+        <v>6626</v>
+      </c>
+      <c r="F32">
+        <v>113.3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>46</v>
+      </c>
+      <c r="B33" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" t="s">
+        <v>10</v>
+      </c>
+      <c r="D33">
+        <v>35</v>
+      </c>
+      <c r="E33">
+        <v>6626</v>
+      </c>
+      <c r="F33">
+        <v>111.67</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>4</v>
+      </c>
+      <c r="B34" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34" t="s">
+        <v>10</v>
+      </c>
+      <c r="D34" t="s">
+        <v>9</v>
+      </c>
+      <c r="E34">
+        <v>200</v>
+      </c>
+      <c r="F34">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>4</v>
+      </c>
+      <c r="B35" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35" t="s">
+        <v>11</v>
+      </c>
+      <c r="D35" t="s">
+        <v>9</v>
+      </c>
+      <c r="E35">
+        <v>200</v>
+      </c>
+      <c r="F35">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>4</v>
+      </c>
+      <c r="B36" t="s">
+        <v>8</v>
+      </c>
+      <c r="C36" t="s">
+        <v>12</v>
+      </c>
+      <c r="D36" t="s">
+        <v>9</v>
+      </c>
+      <c r="E36">
+        <v>200</v>
+      </c>
+      <c r="F36">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>4</v>
+      </c>
+      <c r="B37" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37" t="s">
+        <v>13</v>
+      </c>
+      <c r="D37" t="s">
+        <v>9</v>
+      </c>
+      <c r="E37">
+        <v>200</v>
+      </c>
+      <c r="F37">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>45</v>
+      </c>
+      <c r="B38" t="s">
+        <v>8</v>
+      </c>
+      <c r="C38" t="s">
+        <v>13</v>
+      </c>
+      <c r="D38">
+        <v>32</v>
+      </c>
+      <c r="E38">
+        <v>504</v>
+      </c>
+      <c r="F38">
+        <v>4.7300000000000004</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>45</v>
+      </c>
+      <c r="B39" t="s">
+        <v>8</v>
+      </c>
+      <c r="C39" t="s">
+        <v>12</v>
+      </c>
+      <c r="D39">
+        <v>33</v>
+      </c>
+      <c r="E39">
+        <v>349</v>
+      </c>
+      <c r="F39">
+        <v>2.66</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>45</v>
+      </c>
+      <c r="B40" t="s">
+        <v>8</v>
+      </c>
+      <c r="C40" t="s">
+        <v>11</v>
+      </c>
+      <c r="D40">
+        <v>31</v>
+      </c>
+      <c r="E40">
+        <v>1858</v>
+      </c>
+      <c r="F40">
+        <v>23.08</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>45</v>
+      </c>
+      <c r="B41" t="s">
+        <v>8</v>
+      </c>
+      <c r="C41" t="s">
+        <v>10</v>
+      </c>
+      <c r="D41">
+        <v>31</v>
+      </c>
+      <c r="E41">
+        <v>1858</v>
+      </c>
+      <c r="F41">
+        <v>23.29</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>44</v>
+      </c>
+      <c r="B42" t="s">
+        <v>8</v>
+      </c>
+      <c r="C42" t="s">
+        <v>13</v>
+      </c>
+      <c r="D42" t="s">
+        <v>9</v>
+      </c>
+      <c r="E42">
+        <v>3699</v>
+      </c>
+      <c r="F42">
+        <v>62.89</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>5</v>
+      </c>
+      <c r="B43" t="s">
+        <v>8</v>
+      </c>
+      <c r="C43" t="s">
+        <v>10</v>
+      </c>
+      <c r="D43">
+        <v>4</v>
+      </c>
+      <c r="E43">
+        <v>258</v>
+      </c>
+      <c r="F43">
+        <v>4.26</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>5</v>
+      </c>
+      <c r="B44" t="s">
+        <v>8</v>
+      </c>
+      <c r="C44" t="s">
+        <v>11</v>
+      </c>
+      <c r="D44">
+        <v>4</v>
+      </c>
+      <c r="E44">
+        <v>258</v>
+      </c>
+      <c r="F44">
+        <v>4.21</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>5</v>
+      </c>
+      <c r="B45" t="s">
+        <v>8</v>
+      </c>
+      <c r="C45" t="s">
+        <v>12</v>
+      </c>
+      <c r="D45">
+        <v>4</v>
+      </c>
+      <c r="E45">
+        <v>61</v>
+      </c>
+      <c r="F45">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>5</v>
+      </c>
+      <c r="B46" t="s">
+        <v>8</v>
+      </c>
+      <c r="C46" t="s">
+        <v>13</v>
+      </c>
+      <c r="D46">
+        <v>4</v>
+      </c>
+      <c r="E46">
+        <v>39</v>
+      </c>
+      <c r="F46">
+        <v>0.57999999999999996</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>44</v>
+      </c>
+      <c r="B47" t="s">
+        <v>8</v>
+      </c>
+      <c r="C47" t="s">
+        <v>12</v>
+      </c>
+      <c r="D47" t="s">
+        <v>9</v>
+      </c>
+      <c r="E47">
+        <v>3699</v>
+      </c>
+      <c r="F47">
+        <v>60.77</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>44</v>
+      </c>
+      <c r="B48" t="s">
+        <v>8</v>
+      </c>
+      <c r="C48" t="s">
+        <v>11</v>
+      </c>
+      <c r="D48" t="s">
+        <v>9</v>
+      </c>
+      <c r="E48">
+        <v>3699</v>
+      </c>
+      <c r="F48">
+        <v>62.43</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>44</v>
+      </c>
+      <c r="B49" t="s">
+        <v>8</v>
+      </c>
+      <c r="C49" t="s">
+        <v>10</v>
+      </c>
+      <c r="D49" t="s">
+        <v>9</v>
+      </c>
+      <c r="E49">
+        <v>3699</v>
+      </c>
+      <c r="F49">
+        <v>61.09</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>43</v>
+      </c>
+      <c r="B50" t="s">
+        <v>8</v>
+      </c>
+      <c r="C50" t="s">
+        <v>13</v>
+      </c>
+      <c r="D50">
+        <v>44</v>
+      </c>
+      <c r="E50">
+        <v>4606</v>
+      </c>
+      <c r="F50">
+        <v>68.94</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>43</v>
+      </c>
+      <c r="B51" t="s">
+        <v>8</v>
+      </c>
+      <c r="C51" t="s">
+        <v>12</v>
+      </c>
+      <c r="D51">
+        <v>49</v>
+      </c>
+      <c r="E51">
+        <v>3231</v>
+      </c>
+      <c r="F51">
+        <v>45.93</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>6</v>
+      </c>
+      <c r="B52" t="s">
+        <v>8</v>
+      </c>
+      <c r="C52" t="s">
+        <v>10</v>
+      </c>
+      <c r="D52">
+        <v>5</v>
+      </c>
+      <c r="E52">
+        <v>318</v>
+      </c>
+      <c r="F52">
+        <v>3.08</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>6</v>
+      </c>
+      <c r="B53" t="s">
+        <v>8</v>
+      </c>
+      <c r="C53" t="s">
+        <v>11</v>
+      </c>
+      <c r="D53">
+        <v>5</v>
+      </c>
+      <c r="E53">
+        <v>318</v>
+      </c>
+      <c r="F53">
+        <v>3.11</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>6</v>
+      </c>
+      <c r="B54" t="s">
+        <v>8</v>
+      </c>
+      <c r="C54" t="s">
+        <v>12</v>
+      </c>
+      <c r="D54">
+        <v>5</v>
+      </c>
+      <c r="E54">
+        <v>9</v>
+      </c>
+      <c r="F54">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>6</v>
+      </c>
+      <c r="B55" t="s">
+        <v>8</v>
+      </c>
+      <c r="C55" t="s">
+        <v>13</v>
+      </c>
+      <c r="D55">
+        <v>5</v>
+      </c>
+      <c r="E55">
+        <v>21</v>
+      </c>
+      <c r="F55">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>43</v>
+      </c>
+      <c r="B56" t="s">
+        <v>8</v>
+      </c>
+      <c r="C56" t="s">
+        <v>11</v>
+      </c>
+      <c r="D56">
+        <v>44</v>
+      </c>
+      <c r="E56">
+        <v>5127</v>
+      </c>
+      <c r="F56">
+        <v>77.900000000000006</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>43</v>
+      </c>
+      <c r="B57" t="s">
+        <v>8</v>
+      </c>
+      <c r="C57" t="s">
+        <v>10</v>
+      </c>
+      <c r="D57">
+        <v>44</v>
+      </c>
+      <c r="E57">
+        <v>5127</v>
+      </c>
+      <c r="F57">
+        <v>78.13</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>42</v>
+      </c>
+      <c r="B58" t="s">
+        <v>8</v>
+      </c>
+      <c r="C58" t="s">
+        <v>13</v>
+      </c>
+      <c r="D58">
+        <v>33</v>
+      </c>
+      <c r="E58">
+        <v>1015</v>
+      </c>
+      <c r="F58">
+        <v>9.6300000000000008</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>42</v>
+      </c>
+      <c r="B59" t="s">
+        <v>8</v>
+      </c>
+      <c r="C59" t="s">
+        <v>12</v>
+      </c>
+      <c r="D59">
+        <v>35</v>
+      </c>
+      <c r="E59">
+        <v>965</v>
+      </c>
+      <c r="F59">
+        <v>8.91</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>42</v>
+      </c>
+      <c r="B60" t="s">
+        <v>8</v>
+      </c>
+      <c r="C60" t="s">
+        <v>11</v>
+      </c>
+      <c r="D60">
+        <v>33</v>
+      </c>
+      <c r="E60">
+        <v>1163</v>
+      </c>
+      <c r="F60">
+        <v>11.22</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>7</v>
+      </c>
+      <c r="B61" t="s">
+        <v>8</v>
+      </c>
+      <c r="C61" t="s">
+        <v>10</v>
+      </c>
+      <c r="D61">
+        <v>4</v>
+      </c>
+      <c r="E61">
+        <v>18</v>
+      </c>
+      <c r="F61">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>7</v>
+      </c>
+      <c r="B62" t="s">
+        <v>8</v>
+      </c>
+      <c r="C62" t="s">
+        <v>11</v>
+      </c>
+      <c r="D62">
+        <v>4</v>
+      </c>
+      <c r="E62">
+        <v>18</v>
+      </c>
+      <c r="F62">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>7</v>
+      </c>
+      <c r="B63" t="s">
+        <v>8</v>
+      </c>
+      <c r="C63" t="s">
+        <v>12</v>
+      </c>
+      <c r="D63">
+        <v>4</v>
+      </c>
+      <c r="E63">
+        <v>11</v>
+      </c>
+      <c r="F63">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>7</v>
+      </c>
+      <c r="B64" t="s">
+        <v>8</v>
+      </c>
+      <c r="C64" t="s">
+        <v>13</v>
+      </c>
+      <c r="D64">
+        <v>4</v>
+      </c>
+      <c r="E64">
+        <v>11</v>
+      </c>
+      <c r="F64">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>42</v>
+      </c>
+      <c r="B65" t="s">
+        <v>8</v>
+      </c>
+      <c r="C65" t="s">
+        <v>10</v>
+      </c>
+      <c r="D65">
+        <v>33</v>
+      </c>
+      <c r="E65">
+        <v>1163</v>
+      </c>
+      <c r="F65">
+        <v>11.43</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>41</v>
+      </c>
+      <c r="B66" t="s">
+        <v>8</v>
+      </c>
+      <c r="C66" t="s">
+        <v>13</v>
+      </c>
+      <c r="D66">
+        <v>35</v>
+      </c>
+      <c r="E66">
+        <v>2486</v>
+      </c>
+      <c r="F66">
+        <v>38.72</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>41</v>
+      </c>
+      <c r="B67" t="s">
+        <v>8</v>
+      </c>
+      <c r="C67" t="s">
+        <v>12</v>
+      </c>
+      <c r="D67">
+        <v>41</v>
+      </c>
+      <c r="E67">
+        <v>2273</v>
+      </c>
+      <c r="F67">
+        <v>33.97</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>41</v>
+      </c>
+      <c r="B68" t="s">
+        <v>8</v>
+      </c>
+      <c r="C68" t="s">
+        <v>11</v>
+      </c>
+      <c r="D68">
+        <v>35</v>
+      </c>
+      <c r="E68">
+        <v>3405</v>
+      </c>
+      <c r="F68">
+        <v>58.35</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>41</v>
+      </c>
+      <c r="B69" t="s">
+        <v>8</v>
+      </c>
+      <c r="C69" t="s">
+        <v>10</v>
+      </c>
+      <c r="D69">
+        <v>35</v>
+      </c>
+      <c r="E69">
+        <v>3405</v>
+      </c>
+      <c r="F69">
+        <v>57.2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>8</v>
+      </c>
+      <c r="B70" t="s">
+        <v>8</v>
+      </c>
+      <c r="C70" t="s">
+        <v>10</v>
+      </c>
+      <c r="D70">
+        <v>5</v>
+      </c>
+      <c r="E70">
+        <v>332</v>
+      </c>
+      <c r="F70">
+        <v>3.82</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>8</v>
+      </c>
+      <c r="B71" t="s">
+        <v>8</v>
+      </c>
+      <c r="C71" t="s">
+        <v>11</v>
+      </c>
+      <c r="D71">
+        <v>5</v>
+      </c>
+      <c r="E71">
+        <v>332</v>
+      </c>
+      <c r="F71">
+        <v>3.78</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>8</v>
+      </c>
+      <c r="B72" t="s">
+        <v>8</v>
+      </c>
+      <c r="C72" t="s">
+        <v>12</v>
+      </c>
+      <c r="D72">
+        <v>6</v>
+      </c>
+      <c r="E72">
+        <v>19</v>
+      </c>
+      <c r="F72">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>8</v>
+      </c>
+      <c r="B73" t="s">
+        <v>8</v>
+      </c>
+      <c r="C73" t="s">
+        <v>13</v>
+      </c>
+      <c r="D73">
+        <v>5</v>
+      </c>
+      <c r="E73">
+        <v>57</v>
+      </c>
+      <c r="F73">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>40</v>
+      </c>
+      <c r="B74" t="s">
+        <v>8</v>
+      </c>
+      <c r="C74" t="s">
+        <v>13</v>
+      </c>
+      <c r="D74">
+        <v>13</v>
+      </c>
+      <c r="E74">
+        <v>1622</v>
+      </c>
+      <c r="F74">
+        <v>22.23</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>40</v>
+      </c>
+      <c r="B75" t="s">
+        <v>8</v>
+      </c>
+      <c r="C75" t="s">
+        <v>12</v>
+      </c>
+      <c r="D75">
+        <v>15</v>
+      </c>
+      <c r="E75">
+        <v>1497</v>
+      </c>
+      <c r="F75">
+        <v>21.07</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>40</v>
+      </c>
+      <c r="B76" t="s">
+        <v>8</v>
+      </c>
+      <c r="C76" t="s">
+        <v>11</v>
+      </c>
+      <c r="D76">
+        <v>13</v>
+      </c>
+      <c r="E76">
+        <v>2146</v>
+      </c>
+      <c r="F76">
+        <v>30.59</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>40</v>
+      </c>
+      <c r="B77" t="s">
+        <v>8</v>
+      </c>
+      <c r="C77" t="s">
+        <v>10</v>
+      </c>
+      <c r="D77">
+        <v>13</v>
+      </c>
+      <c r="E77">
+        <v>2146</v>
+      </c>
+      <c r="F77">
+        <v>30.46</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>39</v>
+      </c>
+      <c r="B78" t="s">
+        <v>8</v>
+      </c>
+      <c r="C78" t="s">
+        <v>13</v>
+      </c>
+      <c r="D78">
+        <v>19</v>
+      </c>
+      <c r="E78">
+        <v>2207</v>
+      </c>
+      <c r="F78">
+        <v>25.4</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>9</v>
+      </c>
+      <c r="B79" t="s">
+        <v>8</v>
+      </c>
+      <c r="C79" t="s">
+        <v>10</v>
+      </c>
+      <c r="D79">
+        <v>4</v>
+      </c>
+      <c r="E79">
+        <v>137</v>
+      </c>
+      <c r="F79">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>9</v>
+      </c>
+      <c r="B80" t="s">
+        <v>8</v>
+      </c>
+      <c r="C80" t="s">
+        <v>11</v>
+      </c>
+      <c r="D80">
+        <v>4</v>
+      </c>
+      <c r="E80">
+        <v>137</v>
+      </c>
+      <c r="F80">
+        <v>1.63</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>9</v>
+      </c>
+      <c r="B81" t="s">
+        <v>8</v>
+      </c>
+      <c r="C81" t="s">
+        <v>12</v>
+      </c>
+      <c r="D81">
+        <v>4</v>
+      </c>
+      <c r="E81">
+        <v>11</v>
+      </c>
+      <c r="F81">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>9</v>
+      </c>
+      <c r="B82" t="s">
+        <v>8</v>
+      </c>
+      <c r="C82" t="s">
+        <v>13</v>
+      </c>
+      <c r="D82">
+        <v>4</v>
+      </c>
+      <c r="E82">
+        <v>22</v>
+      </c>
+      <c r="F82">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>39</v>
+      </c>
+      <c r="B83" t="s">
+        <v>8</v>
+      </c>
+      <c r="C83" t="s">
+        <v>12</v>
+      </c>
+      <c r="D83">
+        <v>22</v>
+      </c>
+      <c r="E83">
+        <v>2244</v>
+      </c>
+      <c r="F83">
+        <v>25.27</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>39</v>
+      </c>
+      <c r="B84" t="s">
+        <v>8</v>
+      </c>
+      <c r="C84" t="s">
+        <v>11</v>
+      </c>
+      <c r="D84">
+        <v>19</v>
+      </c>
+      <c r="E84">
+        <v>2602</v>
+      </c>
+      <c r="F84">
+        <v>30.64</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>39</v>
+      </c>
+      <c r="B85" t="s">
+        <v>8</v>
+      </c>
+      <c r="C85" t="s">
+        <v>10</v>
+      </c>
+      <c r="D85">
+        <v>19</v>
+      </c>
+      <c r="E85">
+        <v>2602</v>
+      </c>
+      <c r="F85">
+        <v>30.8</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>38</v>
+      </c>
+      <c r="B86" t="s">
+        <v>8</v>
+      </c>
+      <c r="C86" t="s">
+        <v>13</v>
+      </c>
+      <c r="D86">
+        <v>6</v>
+      </c>
+      <c r="E86">
+        <v>76</v>
+      </c>
+      <c r="F86">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>38</v>
+      </c>
+      <c r="B87" t="s">
+        <v>8</v>
+      </c>
+      <c r="C87" t="s">
+        <v>12</v>
+      </c>
+      <c r="D87">
+        <v>7</v>
+      </c>
+      <c r="E87">
+        <v>41</v>
+      </c>
+      <c r="F87">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>10</v>
+      </c>
+      <c r="B88" t="s">
+        <v>8</v>
+      </c>
+      <c r="C88" t="s">
+        <v>10</v>
+      </c>
+      <c r="D88">
+        <v>4</v>
+      </c>
+      <c r="E88">
+        <v>51</v>
+      </c>
+      <c r="F88">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>10</v>
+      </c>
+      <c r="B89" t="s">
+        <v>8</v>
+      </c>
+      <c r="C89" t="s">
+        <v>11</v>
+      </c>
+      <c r="D89">
+        <v>4</v>
+      </c>
+      <c r="E89">
+        <v>51</v>
+      </c>
+      <c r="F89">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>10</v>
+      </c>
+      <c r="B90" t="s">
+        <v>8</v>
+      </c>
+      <c r="C90" t="s">
+        <v>12</v>
+      </c>
+      <c r="D90">
+        <v>4</v>
+      </c>
+      <c r="E90">
+        <v>17</v>
+      </c>
+      <c r="F90">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>10</v>
+      </c>
+      <c r="B91" t="s">
+        <v>8</v>
+      </c>
+      <c r="C91" t="s">
+        <v>13</v>
+      </c>
+      <c r="D91">
+        <v>4</v>
+      </c>
+      <c r="E91">
+        <v>11</v>
+      </c>
+      <c r="F91">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>38</v>
+      </c>
+      <c r="B92" t="s">
+        <v>8</v>
+      </c>
+      <c r="C92" t="s">
+        <v>11</v>
+      </c>
+      <c r="D92">
+        <v>6</v>
+      </c>
+      <c r="E92">
+        <v>158</v>
+      </c>
+      <c r="F92">
+        <v>1.06</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>38</v>
+      </c>
+      <c r="B93" t="s">
+        <v>8</v>
+      </c>
+      <c r="C93" t="s">
+        <v>10</v>
+      </c>
+      <c r="D93">
+        <v>6</v>
+      </c>
+      <c r="E93">
+        <v>158</v>
+      </c>
+      <c r="F93">
+        <v>1.1599999999999999</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>37</v>
+      </c>
+      <c r="B94" t="s">
+        <v>8</v>
+      </c>
+      <c r="C94" t="s">
+        <v>13</v>
+      </c>
+      <c r="D94">
+        <v>15</v>
+      </c>
+      <c r="E94">
+        <v>331</v>
+      </c>
+      <c r="F94">
+        <v>2.4300000000000002</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>37</v>
+      </c>
+      <c r="B95" t="s">
+        <v>8</v>
+      </c>
+      <c r="C95" t="s">
+        <v>12</v>
+      </c>
+      <c r="D95">
+        <v>17</v>
+      </c>
+      <c r="E95">
+        <v>315</v>
+      </c>
+      <c r="F95">
+        <v>2.2400000000000002</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>37</v>
+      </c>
+      <c r="B96" t="s">
+        <v>8</v>
+      </c>
+      <c r="C96" t="s">
+        <v>11</v>
+      </c>
+      <c r="D96">
+        <v>15</v>
+      </c>
+      <c r="E96">
+        <v>381</v>
+      </c>
+      <c r="F96">
+        <v>2.73</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>11</v>
+      </c>
+      <c r="B97" t="s">
+        <v>8</v>
+      </c>
+      <c r="C97" t="s">
+        <v>10</v>
+      </c>
+      <c r="D97">
+        <v>3</v>
+      </c>
+      <c r="E97">
+        <v>28</v>
+      </c>
+      <c r="F97">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>11</v>
+      </c>
+      <c r="B98" t="s">
+        <v>8</v>
+      </c>
+      <c r="C98" t="s">
+        <v>11</v>
+      </c>
+      <c r="D98">
+        <v>3</v>
+      </c>
+      <c r="E98">
+        <v>28</v>
+      </c>
+      <c r="F98">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>11</v>
+      </c>
+      <c r="B99" t="s">
+        <v>8</v>
+      </c>
+      <c r="C99" t="s">
+        <v>12</v>
+      </c>
+      <c r="D99">
+        <v>3</v>
+      </c>
+      <c r="E99">
+        <v>11</v>
+      </c>
+      <c r="F99">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>11</v>
+      </c>
+      <c r="B100" t="s">
+        <v>8</v>
+      </c>
+      <c r="C100" t="s">
+        <v>13</v>
+      </c>
+      <c r="D100">
+        <v>3</v>
+      </c>
+      <c r="E100">
+        <v>14</v>
+      </c>
+      <c r="F100">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>37</v>
+      </c>
+      <c r="B101" t="s">
+        <v>8</v>
+      </c>
+      <c r="C101" t="s">
+        <v>10</v>
+      </c>
+      <c r="D101">
+        <v>15</v>
+      </c>
+      <c r="E101">
+        <v>381</v>
+      </c>
+      <c r="F101">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>36</v>
+      </c>
+      <c r="B102" t="s">
+        <v>8</v>
+      </c>
+      <c r="C102" t="s">
+        <v>13</v>
+      </c>
+      <c r="D102">
+        <v>6</v>
+      </c>
+      <c r="E102">
+        <v>40</v>
+      </c>
+      <c r="F102">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>36</v>
+      </c>
+      <c r="B103" t="s">
+        <v>8</v>
+      </c>
+      <c r="C103" t="s">
+        <v>12</v>
+      </c>
+      <c r="D103">
+        <v>7</v>
+      </c>
+      <c r="E103">
+        <v>44</v>
+      </c>
+      <c r="F103">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>36</v>
+      </c>
+      <c r="B104" t="s">
+        <v>8</v>
+      </c>
+      <c r="C104" t="s">
+        <v>11</v>
+      </c>
+      <c r="D104">
+        <v>6</v>
+      </c>
+      <c r="E104">
+        <v>85</v>
+      </c>
+      <c r="F104">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>36</v>
+      </c>
+      <c r="B105" t="s">
+        <v>8</v>
+      </c>
+      <c r="C105" t="s">
+        <v>10</v>
+      </c>
+      <c r="D105">
+        <v>6</v>
+      </c>
+      <c r="E105">
+        <v>85</v>
+      </c>
+      <c r="F105">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>12</v>
+      </c>
+      <c r="B106" t="s">
+        <v>8</v>
+      </c>
+      <c r="C106" t="s">
+        <v>10</v>
+      </c>
+      <c r="D106">
+        <v>6</v>
+      </c>
+      <c r="E106">
+        <v>22</v>
+      </c>
+      <c r="F106">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>12</v>
+      </c>
+      <c r="B107" t="s">
+        <v>8</v>
+      </c>
+      <c r="C107" t="s">
+        <v>11</v>
+      </c>
+      <c r="D107">
+        <v>6</v>
+      </c>
+      <c r="E107">
+        <v>22</v>
+      </c>
+      <c r="F107">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>12</v>
+      </c>
+      <c r="B108" t="s">
+        <v>8</v>
+      </c>
+      <c r="C108" t="s">
+        <v>12</v>
+      </c>
+      <c r="D108">
+        <v>7</v>
+      </c>
+      <c r="E108">
+        <v>17</v>
+      </c>
+      <c r="F108">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>12</v>
+      </c>
+      <c r="B109" t="s">
+        <v>8</v>
+      </c>
+      <c r="C109" t="s">
+        <v>13</v>
+      </c>
+      <c r="D109">
+        <v>6</v>
+      </c>
+      <c r="E109">
+        <v>15</v>
+      </c>
+      <c r="F109">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>35</v>
+      </c>
+      <c r="B110" t="s">
+        <v>8</v>
+      </c>
+      <c r="C110" t="s">
+        <v>13</v>
+      </c>
+      <c r="D110">
+        <v>23</v>
+      </c>
+      <c r="E110">
+        <v>272</v>
+      </c>
+      <c r="F110">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>35</v>
+      </c>
+      <c r="B111" t="s">
+        <v>8</v>
+      </c>
+      <c r="C111" t="s">
+        <v>12</v>
+      </c>
+      <c r="D111">
+        <v>24</v>
+      </c>
+      <c r="E111">
+        <v>267</v>
+      </c>
+      <c r="F111">
+        <v>1.64</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>35</v>
+      </c>
+      <c r="B112" t="s">
+        <v>8</v>
+      </c>
+      <c r="C112" t="s">
+        <v>11</v>
+      </c>
+      <c r="D112">
+        <v>23</v>
+      </c>
+      <c r="E112">
+        <v>413</v>
+      </c>
+      <c r="F112">
+        <v>2.84</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>35</v>
+      </c>
+      <c r="B113" t="s">
+        <v>8</v>
+      </c>
+      <c r="C113" t="s">
+        <v>10</v>
+      </c>
+      <c r="D113">
+        <v>23</v>
+      </c>
+      <c r="E113">
+        <v>413</v>
+      </c>
+      <c r="F113">
+        <v>2.82</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>34</v>
+      </c>
+      <c r="B114" t="s">
+        <v>8</v>
+      </c>
+      <c r="C114" t="s">
+        <v>13</v>
+      </c>
+      <c r="D114">
+        <v>11</v>
+      </c>
+      <c r="E114">
+        <v>121</v>
+      </c>
+      <c r="F114">
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>13</v>
+      </c>
+      <c r="B115" t="s">
+        <v>8</v>
+      </c>
+      <c r="C115" t="s">
+        <v>10</v>
+      </c>
+      <c r="D115">
+        <v>6</v>
+      </c>
+      <c r="E115">
+        <v>1078</v>
+      </c>
+      <c r="F115">
+        <v>17.22</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>13</v>
+      </c>
+      <c r="B116" t="s">
+        <v>8</v>
+      </c>
+      <c r="C116" t="s">
+        <v>11</v>
+      </c>
+      <c r="D116">
+        <v>6</v>
+      </c>
+      <c r="E116">
+        <v>1078</v>
+      </c>
+      <c r="F116">
+        <v>17.059999999999999</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>13</v>
+      </c>
+      <c r="B117" t="s">
+        <v>8</v>
+      </c>
+      <c r="C117" t="s">
+        <v>12</v>
+      </c>
+      <c r="D117">
+        <v>6</v>
+      </c>
+      <c r="E117">
+        <v>189</v>
+      </c>
+      <c r="F117">
+        <v>2.72</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>13</v>
+      </c>
+      <c r="B118" t="s">
+        <v>8</v>
+      </c>
+      <c r="C118" t="s">
+        <v>13</v>
+      </c>
+      <c r="D118">
+        <v>6</v>
+      </c>
+      <c r="E118">
+        <v>492</v>
+      </c>
+      <c r="F118">
+        <v>7.87</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>34</v>
+      </c>
+      <c r="B119" t="s">
+        <v>8</v>
+      </c>
+      <c r="C119" t="s">
+        <v>12</v>
+      </c>
+      <c r="D119">
+        <v>12</v>
+      </c>
+      <c r="E119">
+        <v>154</v>
+      </c>
+      <c r="F119">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>34</v>
+      </c>
+      <c r="B120" t="s">
+        <v>8</v>
+      </c>
+      <c r="C120" t="s">
+        <v>11</v>
+      </c>
+      <c r="D120">
+        <v>11</v>
+      </c>
+      <c r="E120">
+        <v>259</v>
+      </c>
+      <c r="F120">
+        <v>2.4700000000000002</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>34</v>
+      </c>
+      <c r="B121" t="s">
+        <v>8</v>
+      </c>
+      <c r="C121" t="s">
+        <v>10</v>
+      </c>
+      <c r="D121">
+        <v>11</v>
+      </c>
+      <c r="E121">
+        <v>259</v>
+      </c>
+      <c r="F121">
+        <v>2.4500000000000002</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>33</v>
+      </c>
+      <c r="B122" t="s">
+        <v>8</v>
+      </c>
+      <c r="C122" t="s">
+        <v>13</v>
+      </c>
+      <c r="D122">
+        <v>6</v>
+      </c>
+      <c r="E122">
+        <v>51</v>
+      </c>
+      <c r="F122">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>33</v>
+      </c>
+      <c r="B123" t="s">
+        <v>8</v>
+      </c>
+      <c r="C123" t="s">
+        <v>12</v>
+      </c>
+      <c r="D123">
+        <v>6</v>
+      </c>
+      <c r="E123">
+        <v>26</v>
+      </c>
+      <c r="F123">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>14</v>
+      </c>
+      <c r="B124" t="s">
+        <v>8</v>
+      </c>
+      <c r="C124" t="s">
+        <v>10</v>
+      </c>
+      <c r="D124">
+        <v>5</v>
+      </c>
+      <c r="E124">
+        <v>856</v>
+      </c>
+      <c r="F124">
+        <v>15.47</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>14</v>
+      </c>
+      <c r="B125" t="s">
+        <v>8</v>
+      </c>
+      <c r="C125" t="s">
+        <v>11</v>
+      </c>
+      <c r="D125">
+        <v>5</v>
+      </c>
+      <c r="E125">
+        <v>856</v>
+      </c>
+      <c r="F125">
+        <v>15.78</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>14</v>
+      </c>
+      <c r="B126" t="s">
+        <v>8</v>
+      </c>
+      <c r="C126" t="s">
+        <v>12</v>
+      </c>
+      <c r="D126">
+        <v>5</v>
+      </c>
+      <c r="E126">
+        <v>25</v>
+      </c>
+      <c r="F126">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>14</v>
+      </c>
+      <c r="B127" t="s">
+        <v>8</v>
+      </c>
+      <c r="C127" t="s">
+        <v>13</v>
+      </c>
+      <c r="D127">
+        <v>5</v>
+      </c>
+      <c r="E127">
+        <v>429</v>
+      </c>
+      <c r="F127">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>33</v>
+      </c>
+      <c r="B128" t="s">
+        <v>8</v>
+      </c>
+      <c r="C128" t="s">
+        <v>11</v>
+      </c>
+      <c r="D128">
+        <v>6</v>
+      </c>
+      <c r="E128">
+        <v>468</v>
+      </c>
+      <c r="F128">
+        <v>6.85</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>33</v>
+      </c>
+      <c r="B129" t="s">
+        <v>8</v>
+      </c>
+      <c r="C129" t="s">
+        <v>10</v>
+      </c>
+      <c r="D129">
+        <v>6</v>
+      </c>
+      <c r="E129">
+        <v>468</v>
+      </c>
+      <c r="F129">
+        <v>6.73</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>32</v>
+      </c>
+      <c r="B130" t="s">
+        <v>8</v>
+      </c>
+      <c r="C130" t="s">
+        <v>13</v>
+      </c>
+      <c r="D130">
+        <v>25</v>
+      </c>
+      <c r="E130">
+        <v>870</v>
+      </c>
+      <c r="F130">
+        <v>7.79</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>32</v>
+      </c>
+      <c r="B131" t="s">
+        <v>8</v>
+      </c>
+      <c r="C131" t="s">
+        <v>12</v>
+      </c>
+      <c r="D131">
+        <v>27</v>
+      </c>
+      <c r="E131">
+        <v>773</v>
+      </c>
+      <c r="F131">
+        <v>6.35</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>32</v>
+      </c>
+      <c r="B132" t="s">
+        <v>8</v>
+      </c>
+      <c r="C132" t="s">
+        <v>11</v>
+      </c>
+      <c r="D132">
+        <v>25</v>
+      </c>
+      <c r="E132">
+        <v>1151</v>
+      </c>
+      <c r="F132">
+        <v>10.55</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>15</v>
+      </c>
+      <c r="B133" t="s">
+        <v>8</v>
+      </c>
+      <c r="C133" t="s">
+        <v>10</v>
+      </c>
+      <c r="D133">
+        <v>7</v>
+      </c>
+      <c r="E133">
+        <v>630</v>
+      </c>
+      <c r="F133">
+        <v>8.73</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>15</v>
+      </c>
+      <c r="B134" t="s">
+        <v>8</v>
+      </c>
+      <c r="C134" t="s">
+        <v>11</v>
+      </c>
+      <c r="D134">
+        <v>7</v>
+      </c>
+      <c r="E134">
+        <v>630</v>
+      </c>
+      <c r="F134">
+        <v>8.5399999999999991</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>15</v>
+      </c>
+      <c r="B135" t="s">
+        <v>8</v>
+      </c>
+      <c r="C135" t="s">
+        <v>12</v>
+      </c>
+      <c r="D135">
+        <v>7</v>
+      </c>
+      <c r="E135">
+        <v>106</v>
+      </c>
+      <c r="F135">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>15</v>
+      </c>
+      <c r="B136" t="s">
+        <v>8</v>
+      </c>
+      <c r="C136" t="s">
+        <v>13</v>
+      </c>
+      <c r="D136">
+        <v>7</v>
+      </c>
+      <c r="E136">
+        <v>118</v>
+      </c>
+      <c r="F136">
+        <v>1.58</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>32</v>
+      </c>
+      <c r="B137" t="s">
+        <v>8</v>
+      </c>
+      <c r="C137" t="s">
+        <v>10</v>
+      </c>
+      <c r="D137">
+        <v>25</v>
+      </c>
+      <c r="E137">
+        <v>1151</v>
+      </c>
+      <c r="F137">
+        <v>10.88</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>31</v>
+      </c>
+      <c r="B138" t="s">
+        <v>8</v>
+      </c>
+      <c r="C138" t="s">
+        <v>13</v>
+      </c>
+      <c r="D138">
+        <v>20</v>
+      </c>
+      <c r="E138">
+        <v>5346</v>
+      </c>
+      <c r="F138">
+        <v>96.23</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>31</v>
+      </c>
+      <c r="B139" t="s">
+        <v>8</v>
+      </c>
+      <c r="C139" t="s">
+        <v>12</v>
+      </c>
+      <c r="D139">
+        <v>23</v>
+      </c>
+      <c r="E139">
+        <v>4918</v>
+      </c>
+      <c r="F139">
+        <v>88.27</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>31</v>
+      </c>
+      <c r="B140" t="s">
+        <v>8</v>
+      </c>
+      <c r="C140" t="s">
+        <v>11</v>
+      </c>
+      <c r="D140">
+        <v>20</v>
+      </c>
+      <c r="E140">
+        <v>9425</v>
+      </c>
+      <c r="F140">
+        <v>215.26</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>31</v>
+      </c>
+      <c r="B141" t="s">
+        <v>8</v>
+      </c>
+      <c r="C141" t="s">
+        <v>10</v>
+      </c>
+      <c r="D141">
+        <v>20</v>
+      </c>
+      <c r="E141">
+        <v>9425</v>
+      </c>
+      <c r="F141">
+        <v>212.39</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>16</v>
+      </c>
+      <c r="B142" t="s">
+        <v>8</v>
+      </c>
+      <c r="C142" t="s">
+        <v>10</v>
+      </c>
+      <c r="D142">
+        <v>4</v>
+      </c>
+      <c r="E142">
+        <v>56</v>
+      </c>
+      <c r="F142">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>16</v>
+      </c>
+      <c r="B143" t="s">
+        <v>8</v>
+      </c>
+      <c r="C143" t="s">
+        <v>11</v>
+      </c>
+      <c r="D143">
+        <v>4</v>
+      </c>
+      <c r="E143">
+        <v>56</v>
+      </c>
+      <c r="F143">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>16</v>
+      </c>
+      <c r="B144" t="s">
+        <v>8</v>
+      </c>
+      <c r="C144" t="s">
+        <v>12</v>
+      </c>
+      <c r="D144">
+        <v>5</v>
+      </c>
+      <c r="E144">
+        <v>9</v>
+      </c>
+      <c r="F144">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>16</v>
+      </c>
+      <c r="B145" t="s">
+        <v>8</v>
+      </c>
+      <c r="C145" t="s">
+        <v>13</v>
+      </c>
+      <c r="D145">
+        <v>4</v>
+      </c>
+      <c r="E145">
+        <v>9</v>
+      </c>
+      <c r="F145">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>30</v>
+      </c>
+      <c r="B146" t="s">
+        <v>8</v>
+      </c>
+      <c r="C146" t="s">
+        <v>13</v>
+      </c>
+      <c r="D146">
+        <v>6</v>
+      </c>
+      <c r="E146">
+        <v>106</v>
+      </c>
+      <c r="F146">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>30</v>
+      </c>
+      <c r="B147" t="s">
+        <v>8</v>
+      </c>
+      <c r="C147" t="s">
+        <v>12</v>
+      </c>
+      <c r="D147">
+        <v>6</v>
+      </c>
+      <c r="E147">
+        <v>136</v>
+      </c>
+      <c r="F147">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>30</v>
+      </c>
+      <c r="B148" t="s">
+        <v>8</v>
+      </c>
+      <c r="C148" t="s">
+        <v>11</v>
+      </c>
+      <c r="D148">
+        <v>6</v>
+      </c>
+      <c r="E148">
+        <v>370</v>
+      </c>
+      <c r="F148">
+        <v>3.47</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>30</v>
+      </c>
+      <c r="B149" t="s">
+        <v>8</v>
+      </c>
+      <c r="C149" t="s">
+        <v>10</v>
+      </c>
+      <c r="D149">
+        <v>6</v>
+      </c>
+      <c r="E149">
+        <v>370</v>
+      </c>
+      <c r="F149">
+        <v>3.41</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>29</v>
+      </c>
+      <c r="B150" t="s">
+        <v>8</v>
+      </c>
+      <c r="C150" t="s">
+        <v>13</v>
+      </c>
+      <c r="D150">
+        <v>6</v>
+      </c>
+      <c r="E150">
+        <v>28</v>
+      </c>
+      <c r="F150">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>17</v>
+      </c>
+      <c r="B151" t="s">
+        <v>8</v>
+      </c>
+      <c r="C151" t="s">
+        <v>10</v>
+      </c>
+      <c r="D151">
+        <v>7</v>
+      </c>
+      <c r="E151">
+        <v>147</v>
+      </c>
+      <c r="F151">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>17</v>
+      </c>
+      <c r="B152" t="s">
+        <v>8</v>
+      </c>
+      <c r="C152" t="s">
+        <v>11</v>
+      </c>
+      <c r="D152">
+        <v>7</v>
+      </c>
+      <c r="E152">
+        <v>147</v>
+      </c>
+      <c r="F152">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>17</v>
+      </c>
+      <c r="B153" t="s">
+        <v>8</v>
+      </c>
+      <c r="C153" t="s">
+        <v>12</v>
+      </c>
+      <c r="D153">
+        <v>7</v>
+      </c>
+      <c r="E153">
+        <v>88</v>
+      </c>
+      <c r="F153">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>17</v>
+      </c>
+      <c r="B154" t="s">
+        <v>8</v>
+      </c>
+      <c r="C154" t="s">
+        <v>13</v>
+      </c>
+      <c r="D154">
+        <v>7</v>
+      </c>
+      <c r="E154">
+        <v>123</v>
+      </c>
+      <c r="F154">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>29</v>
+      </c>
+      <c r="B155" t="s">
+        <v>8</v>
+      </c>
+      <c r="C155" t="s">
+        <v>12</v>
+      </c>
+      <c r="D155">
+        <v>9</v>
+      </c>
+      <c r="E155">
+        <v>45</v>
+      </c>
+      <c r="F155">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>29</v>
+      </c>
+      <c r="B156" t="s">
+        <v>8</v>
+      </c>
+      <c r="C156" t="s">
+        <v>11</v>
+      </c>
+      <c r="D156">
+        <v>6</v>
+      </c>
+      <c r="E156">
+        <v>280</v>
+      </c>
+      <c r="F156">
+        <v>3.43</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <v>29</v>
+      </c>
+      <c r="B157" t="s">
+        <v>8</v>
+      </c>
+      <c r="C157" t="s">
+        <v>10</v>
+      </c>
+      <c r="D157">
+        <v>6</v>
+      </c>
+      <c r="E157">
+        <v>280</v>
+      </c>
+      <c r="F157">
+        <v>3.37</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>28</v>
+      </c>
+      <c r="B158" t="s">
+        <v>8</v>
+      </c>
+      <c r="C158" t="s">
+        <v>13</v>
+      </c>
+      <c r="D158">
+        <v>12</v>
+      </c>
+      <c r="E158">
+        <v>921</v>
+      </c>
+      <c r="F158">
+        <v>11.08</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>28</v>
+      </c>
+      <c r="B159" t="s">
+        <v>8</v>
+      </c>
+      <c r="C159" t="s">
+        <v>12</v>
+      </c>
+      <c r="D159">
+        <v>15</v>
+      </c>
+      <c r="E159">
+        <v>787</v>
+      </c>
+      <c r="F159">
+        <v>8.34</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <v>18</v>
+      </c>
+      <c r="B160" t="s">
+        <v>8</v>
+      </c>
+      <c r="C160" t="s">
+        <v>10</v>
+      </c>
+      <c r="D160">
+        <v>7</v>
+      </c>
+      <c r="E160">
+        <v>69</v>
+      </c>
+      <c r="F160">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <v>18</v>
+      </c>
+      <c r="B161" t="s">
+        <v>8</v>
+      </c>
+      <c r="C161" t="s">
+        <v>11</v>
+      </c>
+      <c r="D161">
+        <v>7</v>
+      </c>
+      <c r="E161">
+        <v>69</v>
+      </c>
+      <c r="F161">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>18</v>
+      </c>
+      <c r="B162" t="s">
+        <v>8</v>
+      </c>
+      <c r="C162" t="s">
+        <v>12</v>
+      </c>
+      <c r="D162">
+        <v>7</v>
+      </c>
+      <c r="E162">
+        <v>27</v>
+      </c>
+      <c r="F162">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <v>18</v>
+      </c>
+      <c r="B163" t="s">
+        <v>8</v>
+      </c>
+      <c r="C163" t="s">
+        <v>13</v>
+      </c>
+      <c r="D163">
+        <v>7</v>
+      </c>
+      <c r="E163">
+        <v>24</v>
+      </c>
+      <c r="F163">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <v>28</v>
+      </c>
+      <c r="B164" t="s">
+        <v>8</v>
+      </c>
+      <c r="C164" t="s">
+        <v>11</v>
+      </c>
+      <c r="D164">
+        <v>12</v>
+      </c>
+      <c r="E164">
+        <v>2402</v>
+      </c>
+      <c r="F164">
+        <v>37.28</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <v>28</v>
+      </c>
+      <c r="B165" t="s">
+        <v>8</v>
+      </c>
+      <c r="C165" t="s">
+        <v>10</v>
+      </c>
+      <c r="D165">
+        <v>12</v>
+      </c>
+      <c r="E165">
+        <v>2402</v>
+      </c>
+      <c r="F165">
+        <v>36.53</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <v>27</v>
+      </c>
+      <c r="B166" t="s">
+        <v>8</v>
+      </c>
+      <c r="C166" t="s">
+        <v>13</v>
+      </c>
+      <c r="D166">
+        <v>14</v>
+      </c>
+      <c r="E166">
+        <v>47</v>
+      </c>
+      <c r="F166">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <v>27</v>
+      </c>
+      <c r="B167" t="s">
+        <v>8</v>
+      </c>
+      <c r="C167" t="s">
+        <v>12</v>
+      </c>
+      <c r="D167">
+        <v>14</v>
+      </c>
+      <c r="E167">
+        <v>40</v>
+      </c>
+      <c r="F167">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <v>27</v>
+      </c>
+      <c r="B168" t="s">
+        <v>8</v>
+      </c>
+      <c r="C168" t="s">
+        <v>11</v>
+      </c>
+      <c r="D168">
+        <v>14</v>
+      </c>
+      <c r="E168">
+        <v>49</v>
+      </c>
+      <c r="F168">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A169">
+        <v>19</v>
+      </c>
+      <c r="B169" t="s">
+        <v>8</v>
+      </c>
+      <c r="C169" t="s">
+        <v>10</v>
+      </c>
+      <c r="D169">
+        <v>6</v>
+      </c>
+      <c r="E169">
+        <v>1694</v>
+      </c>
+      <c r="F169">
+        <v>29.51</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A170">
+        <v>19</v>
+      </c>
+      <c r="B170" t="s">
+        <v>8</v>
+      </c>
+      <c r="C170" t="s">
+        <v>11</v>
+      </c>
+      <c r="D170">
+        <v>6</v>
+      </c>
+      <c r="E170">
+        <v>1694</v>
+      </c>
+      <c r="F170">
+        <v>30.14</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A171">
+        <v>19</v>
+      </c>
+      <c r="B171" t="s">
+        <v>8</v>
+      </c>
+      <c r="C171" t="s">
+        <v>12</v>
+      </c>
+      <c r="D171">
+        <v>6</v>
+      </c>
+      <c r="E171">
+        <v>39</v>
+      </c>
+      <c r="F171">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A172">
+        <v>19</v>
+      </c>
+      <c r="B172" t="s">
+        <v>8</v>
+      </c>
+      <c r="C172" t="s">
+        <v>13</v>
+      </c>
+      <c r="D172">
+        <v>6</v>
+      </c>
+      <c r="E172">
+        <v>44</v>
+      </c>
+      <c r="F172">
+        <v>0.69</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A173">
+        <v>27</v>
+      </c>
+      <c r="B173" t="s">
+        <v>8</v>
+      </c>
+      <c r="C173" t="s">
+        <v>10</v>
+      </c>
+      <c r="D173">
+        <v>14</v>
+      </c>
+      <c r="E173">
+        <v>49</v>
+      </c>
+      <c r="F173">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A174">
+        <v>26</v>
+      </c>
+      <c r="B174" t="s">
+        <v>8</v>
+      </c>
+      <c r="C174" t="s">
+        <v>13</v>
+      </c>
+      <c r="D174">
+        <v>5</v>
+      </c>
+      <c r="E174">
+        <v>285</v>
+      </c>
+      <c r="F174">
+        <v>4.62</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A175">
+        <v>26</v>
+      </c>
+      <c r="B175" t="s">
+        <v>8</v>
+      </c>
+      <c r="C175" t="s">
+        <v>12</v>
+      </c>
+      <c r="D175">
+        <v>5</v>
+      </c>
+      <c r="E175">
+        <v>55</v>
+      </c>
+      <c r="F175">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A176">
+        <v>26</v>
+      </c>
+      <c r="B176" t="s">
+        <v>8</v>
+      </c>
+      <c r="C176" t="s">
+        <v>11</v>
+      </c>
+      <c r="D176">
+        <v>5</v>
+      </c>
+      <c r="E176">
+        <v>620</v>
+      </c>
+      <c r="F176">
+        <v>9.4700000000000006</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A177">
+        <v>26</v>
+      </c>
+      <c r="B177" t="s">
+        <v>8</v>
+      </c>
+      <c r="C177" t="s">
+        <v>10</v>
+      </c>
+      <c r="D177">
+        <v>5</v>
+      </c>
+      <c r="E177">
+        <v>620</v>
+      </c>
+      <c r="F177">
+        <v>9.68</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A178">
+        <v>20</v>
+      </c>
+      <c r="B178" t="s">
+        <v>8</v>
+      </c>
+      <c r="C178" t="s">
+        <v>10</v>
+      </c>
+      <c r="D178">
+        <v>4</v>
+      </c>
+      <c r="E178">
+        <v>58</v>
+      </c>
+      <c r="F178">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A179">
+        <v>20</v>
+      </c>
+      <c r="B179" t="s">
+        <v>8</v>
+      </c>
+      <c r="C179" t="s">
+        <v>11</v>
+      </c>
+      <c r="D179">
+        <v>4</v>
+      </c>
+      <c r="E179">
+        <v>58</v>
+      </c>
+      <c r="F179">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A180">
+        <v>20</v>
+      </c>
+      <c r="B180" t="s">
+        <v>8</v>
+      </c>
+      <c r="C180" t="s">
+        <v>12</v>
+      </c>
+      <c r="D180">
+        <v>5</v>
+      </c>
+      <c r="E180">
+        <v>15</v>
+      </c>
+      <c r="F180">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A181">
+        <v>20</v>
+      </c>
+      <c r="B181" t="s">
+        <v>8</v>
+      </c>
+      <c r="C181" t="s">
+        <v>13</v>
+      </c>
+      <c r="D181">
+        <v>4</v>
+      </c>
+      <c r="E181">
+        <v>23</v>
+      </c>
+      <c r="F181">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A182">
+        <v>25</v>
+      </c>
+      <c r="B182" t="s">
+        <v>8</v>
+      </c>
+      <c r="C182" t="s">
+        <v>13</v>
+      </c>
+      <c r="D182">
+        <v>9</v>
+      </c>
+      <c r="E182">
+        <v>62</v>
+      </c>
+      <c r="F182">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A183">
+        <v>25</v>
+      </c>
+      <c r="B183" t="s">
+        <v>8</v>
+      </c>
+      <c r="C183" t="s">
+        <v>12</v>
+      </c>
+      <c r="D183">
+        <v>9</v>
+      </c>
+      <c r="E183">
+        <v>53</v>
+      </c>
+      <c r="F183">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A184">
+        <v>25</v>
+      </c>
+      <c r="B184" t="s">
+        <v>8</v>
+      </c>
+      <c r="C184" t="s">
+        <v>11</v>
+      </c>
+      <c r="D184">
+        <v>9</v>
+      </c>
+      <c r="E184">
+        <v>70</v>
+      </c>
+      <c r="F184">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A185">
+        <v>25</v>
+      </c>
+      <c r="B185" t="s">
+        <v>8</v>
+      </c>
+      <c r="C185" t="s">
+        <v>10</v>
+      </c>
+      <c r="D185">
+        <v>9</v>
+      </c>
+      <c r="E185">
+        <v>70</v>
+      </c>
+      <c r="F185">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A186">
+        <v>24</v>
+      </c>
+      <c r="B186" t="s">
+        <v>8</v>
+      </c>
+      <c r="C186" t="s">
+        <v>13</v>
+      </c>
+      <c r="D186">
+        <v>9</v>
+      </c>
+      <c r="E186">
+        <v>1290</v>
+      </c>
+      <c r="F186">
+        <v>21.19</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A187">
+        <v>21</v>
+      </c>
+      <c r="B187" t="s">
+        <v>8</v>
+      </c>
+      <c r="C187" t="s">
+        <v>10</v>
+      </c>
+      <c r="D187">
+        <v>18</v>
+      </c>
+      <c r="E187">
+        <v>1227</v>
+      </c>
+      <c r="F187">
+        <v>12.94</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A188">
+        <v>21</v>
+      </c>
+      <c r="B188" t="s">
+        <v>8</v>
+      </c>
+      <c r="C188" t="s">
+        <v>11</v>
+      </c>
+      <c r="D188">
+        <v>18</v>
+      </c>
+      <c r="E188">
+        <v>1227</v>
+      </c>
+      <c r="F188">
+        <v>12.94</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A189">
+        <v>21</v>
+      </c>
+      <c r="B189" t="s">
+        <v>8</v>
+      </c>
+      <c r="C189" t="s">
+        <v>12</v>
+      </c>
+      <c r="D189">
+        <v>21</v>
+      </c>
+      <c r="E189">
+        <v>1030</v>
+      </c>
+      <c r="F189">
+        <v>10.97</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A190">
+        <v>21</v>
+      </c>
+      <c r="B190" t="s">
+        <v>8</v>
+      </c>
+      <c r="C190" t="s">
+        <v>13</v>
+      </c>
+      <c r="D190">
+        <v>19</v>
+      </c>
+      <c r="E190">
+        <v>954</v>
+      </c>
+      <c r="F190">
+        <v>10.14</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A191">
+        <v>24</v>
+      </c>
+      <c r="B191" t="s">
+        <v>8</v>
+      </c>
+      <c r="C191" t="s">
+        <v>12</v>
+      </c>
+      <c r="D191">
+        <v>10</v>
+      </c>
+      <c r="E191">
+        <v>413</v>
+      </c>
+      <c r="F191">
+        <v>4.79</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A192">
+        <v>24</v>
+      </c>
+      <c r="B192" t="s">
+        <v>8</v>
+      </c>
+      <c r="C192" t="s">
+        <v>11</v>
+      </c>
+      <c r="D192">
+        <v>9</v>
+      </c>
+      <c r="E192">
+        <v>1805</v>
+      </c>
+      <c r="F192">
+        <v>30.05</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A193">
+        <v>24</v>
+      </c>
+      <c r="B193" t="s">
+        <v>8</v>
+      </c>
+      <c r="C193" t="s">
+        <v>10</v>
+      </c>
+      <c r="D193">
+        <v>9</v>
+      </c>
+      <c r="E193">
+        <v>1805</v>
+      </c>
+      <c r="F193">
+        <v>30.35</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A194">
+        <v>23</v>
+      </c>
+      <c r="B194" t="s">
+        <v>8</v>
+      </c>
+      <c r="C194" t="s">
+        <v>13</v>
+      </c>
+      <c r="D194">
+        <v>5</v>
+      </c>
+      <c r="E194">
+        <v>33</v>
+      </c>
+      <c r="F194">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A195">
+        <v>23</v>
+      </c>
+      <c r="B195" t="s">
+        <v>8</v>
+      </c>
+      <c r="C195" t="s">
+        <v>12</v>
+      </c>
+      <c r="D195">
+        <v>5</v>
+      </c>
+      <c r="E195">
+        <v>14</v>
+      </c>
+      <c r="F195">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A196">
+        <v>22</v>
+      </c>
+      <c r="B196" t="s">
+        <v>8</v>
+      </c>
+      <c r="C196" t="s">
+        <v>10</v>
+      </c>
+      <c r="D196">
+        <v>18</v>
+      </c>
+      <c r="E196">
+        <v>2624</v>
+      </c>
+      <c r="F196">
+        <v>39.17</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A197">
+        <v>22</v>
+      </c>
+      <c r="B197" t="s">
+        <v>8</v>
+      </c>
+      <c r="C197" t="s">
+        <v>11</v>
+      </c>
+      <c r="D197">
+        <v>18</v>
+      </c>
+      <c r="E197">
+        <v>2624</v>
+      </c>
+      <c r="F197">
+        <v>38.5</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A198">
+        <v>22</v>
+      </c>
+      <c r="B198" t="s">
+        <v>8</v>
+      </c>
+      <c r="C198" t="s">
+        <v>12</v>
+      </c>
+      <c r="D198">
+        <v>18</v>
+      </c>
+      <c r="E198">
+        <v>1383</v>
+      </c>
+      <c r="F198">
+        <v>18.82</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A199">
+        <v>22</v>
+      </c>
+      <c r="B199" t="s">
+        <v>8</v>
+      </c>
+      <c r="C199" t="s">
+        <v>13</v>
+      </c>
+      <c r="D199">
+        <v>18</v>
+      </c>
+      <c r="E199">
+        <v>1382</v>
+      </c>
+      <c r="F199">
+        <v>18.29</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A200">
+        <v>23</v>
+      </c>
+      <c r="B200" t="s">
+        <v>8</v>
+      </c>
+      <c r="C200" t="s">
+        <v>11</v>
+      </c>
+      <c r="D200">
+        <v>5</v>
+      </c>
+      <c r="E200">
+        <v>96</v>
+      </c>
+      <c r="F200">
+        <v>0.69</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A201">
+        <v>23</v>
+      </c>
+      <c r="B201" t="s">
+        <v>8</v>
+      </c>
+      <c r="C201" t="s">
+        <v>10</v>
+      </c>
+      <c r="D201">
+        <v>5</v>
+      </c>
+      <c r="E201">
+        <v>96</v>
+      </c>
+      <c r="F201">
+        <v>0.68</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G451"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F410" sqref="F410"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
